--- a/db/db_analysis/query_execution_times_4-7.xlsx
+++ b/db/db_analysis/query_execution_times_4-7.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsghrg/workarea/work/zhaw_repos/s8/ba/releo/db/db_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{469C55DC-94D2-F241-AB2F-9A9CB802EDB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9510DDCA-4E97-2B4D-9266-DA8E665D537D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19620" yWindow="4880" windowWidth="39060" windowHeight="22320" activeTab="4"/>
+    <workbookView xWindow="34840" yWindow="500" windowWidth="33920" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_execution_times_4-7" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,28 @@
     <sheet name="6 tables" sheetId="4" r:id="rId4"/>
     <sheet name="7 tables" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'4 tables'!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'4 tables'!$H$2:$H$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'4 tables'!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'4 tables'!$H$2:$H$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'5 tables'!$F$2:$F$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'5 tables'!$H$2:$H$29</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'4 tables'!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'4 tables'!$H$2:$H$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'4 tables'!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'4 tables'!$H$2:$H$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'4 tables'!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'4 tables'!$H$2:$H$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'4 tables'!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'4 tables'!$H$2:$H$9</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="341">
   <si>
     <t>3ac4866c209c9a450f8964a5d4650b7e8a84dc1a3d7393180108e8fc3e299127</t>
   </si>
@@ -3243,11 +3256,14 @@
   <si>
     <t>time in s</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -3796,6 +3812,218 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3830,6 +4058,126 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -3841,6 +4189,84 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4003,84 +4429,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -4091,150 +4439,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -4317,7 +4521,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -4327,205 +4531,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4558,6 +4574,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4597,6 +4638,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>random query</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4659,6 +4703,80 @@
         <c:axId val="1436841359"/>
         <c:axId val="1436843039"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>psql average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 tables'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.584400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6593-9349-B46A-7883370EE3A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1436841359"/>
+        <c:axId val="1436843039"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1436841359"/>
         <c:scaling>
@@ -4666,6 +4784,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>query</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4730,6 +4908,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4773,6 +5006,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4832,6 +5096,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4871,6 +5160,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>random query</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4993,6 +5285,140 @@
         <c:axId val="1436841359"/>
         <c:axId val="1436843039"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>psql average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 tables'!$H$2:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.136000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA02-8645-9DF8-4936F0EC0D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1436841359"/>
+        <c:axId val="1436843039"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1436841359"/>
         <c:scaling>
@@ -5000,6 +5426,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>query number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5064,6 +5545,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5107,6 +5643,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5166,6 +5733,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5205,6 +5802,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>random queries</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5423,6 +6023,236 @@
         <c:axId val="1436841359"/>
         <c:axId val="1436843039"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>average psql</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6 tables'!$H$2:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>54.984000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1861-CD4B-8E83-78CB3039C125}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1436841359"/>
+        <c:axId val="1436843039"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1436841359"/>
         <c:scaling>
@@ -5430,6 +6260,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>query number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5494,6 +6379,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5537,6 +6477,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33525302931335466"/>
+          <c:y val="6.6393934850547578E-2"/>
+          <c:w val="0.31578696670334805"/>
+          <c:h val="3.3859337939145334E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5596,6 +6577,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>execution time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5635,6 +6641,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>random queries</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5973,6 +6982,356 @@
         <c:axId val="1436841359"/>
         <c:axId val="1436843039"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>psql average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'7 tables'!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>56.363999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D65-2147-9C54-CDA6C68E76AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1436841359"/>
+        <c:axId val="1436843039"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1436841359"/>
         <c:scaling>
@@ -5980,6 +7339,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>query</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6044,6 +7463,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6087,6 +7561,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8307,16 +9812,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>702734</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>182739</xdr:rowOff>
+      <xdr:colOff>143934</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8350,16 +9855,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>791634</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>17639</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>436034</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>119239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8393,23 +9898,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>372534</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>4939</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>270934</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>106539</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD19FB5C-458D-6048-9266-50C294B3040E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA97FE6-4A12-034F-8368-D62A63B18BE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8437,15 +9942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>245534</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>182739</xdr:rowOff>
+      <xdr:colOff>410634</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>81139</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8475,3513 +9980,79 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="results"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>32.3596222400665</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>32.819470167159999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>33.044859647750798</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>33.509964227676299</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>33.627692461013702</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>33.807363748550401</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>34.140941619872997</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>34.410893201828003</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>34.472877979278501</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>34.494714498519897</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>34.563700437545698</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>34.900010108947697</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>34.974709987640303</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>35.085432052612298</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>35.204892396926802</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>35.205121517181396</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>35.372678756713803</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>35.453978061675997</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>35.524225711822503</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>35.597499608993502</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>35.608240365981999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>35.788052558898897</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>35.920857429504302</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>35.986428022384601</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>36.045306444167998</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>36.077434778213501</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>36.089266538619903</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>36.121140718459998</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>36.130175828933702</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>36.1302165985107</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>36.171840429306002</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>36.183311939239502</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>36.252733230590799</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>36.284526348113999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>36.323401212692197</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>36.363610267639103</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>36.432912111282299</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>36.449408531188901</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>36.460883855819702</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>36.539323806762603</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>36.575315952300997</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>36.636050224304199</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>36.660392999648998</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>36.698113203048699</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>36.712285280227597</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>36.779215574264498</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>36.880609989166203</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>36.969536066055298</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>37.080995798110898</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>37.115668773651102</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>37.174347400665198</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>37.2336459159851</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>37.338165998458798</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>37.382476806640597</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>37.394528627395601</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>37.407263040542603</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>37.483092784881499</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>37.514660835266099</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>37.578629016876199</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>37.636659383773797</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>37.724431276321397</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>37.764579772949197</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>37.9983806610107</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>38.022270202636697</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>38.030739307403501</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>38.108735322952199</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>38.127520561218198</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>38.276372671127298</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>38.283118724822998</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>38.340936899185103</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>38.389245510101297</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>38.529490232467602</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>38.603853702545102</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>38.608419656753497</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>38.658994197845402</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>38.770936727523797</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>38.934844970703097</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>39.054902315139699</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>39.222832202911299</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>39.254888296127298</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>39.522992134094203</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>39.5410509109497</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>39.666579008102403</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>39.669414758682201</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>39.728185653686502</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>39.733399391174302</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>39.818325281143103</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>39.910088062286299</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>39.933208703994701</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>39.9997236728668</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>40.024283170700002</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>40.154551506042402</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>40.248729467391897</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>40.283416748046797</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>40.346638679504302</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>40.430655717849703</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>40.474107027053797</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>40.490119934082003</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>40.616974115371697</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>40.731763839721602</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>40.8463776111602</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>40.8817074298858</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104">
-            <v>40.927251577377298</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105">
-            <v>40.933377027511597</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106">
-            <v>40.965046405792201</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107">
-            <v>41.086610794067298</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108">
-            <v>41.090056896209703</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109">
-            <v>41.132087469100902</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110">
-            <v>41.136725664138702</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111">
-            <v>41.139316320419297</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112">
-            <v>41.180668354034403</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113">
-            <v>41.187393665313699</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114">
-            <v>41.234473466873098</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="C115">
-            <v>41.235721588134702</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116">
-            <v>41.293300390243502</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117">
-            <v>41.401665210723799</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118">
-            <v>41.432609319686797</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119">
-            <v>41.468533039093003</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120">
-            <v>41.514542579650801</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121">
-            <v>41.523432493209803</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122">
-            <v>41.5266625881195</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123">
-            <v>41.5473759174346</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124">
-            <v>41.6245210170745</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125">
-            <v>41.6605670452117</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126">
-            <v>41.694369077682403</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127">
-            <v>41.695242166519101</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128">
-            <v>41.750929117202702</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129">
-            <v>41.8171482086181</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130">
-            <v>41.854129076004</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="C131">
-            <v>41.886205911636303</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132">
-            <v>41.914860486984203</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133">
-            <v>41.934297561645501</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134">
-            <v>41.939375400543199</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135">
-            <v>41.994157791137603</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136">
-            <v>42.048521995544398</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137">
-            <v>42.070914745330803</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138">
-            <v>42.107032537460299</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139">
-            <v>42.128602266311603</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140">
-            <v>42.131192207336397</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141">
-            <v>42.140430212020803</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142">
-            <v>42.145534515380803</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143">
-            <v>42.179310560226398</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144">
-            <v>42.195586919784503</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145">
-            <v>42.225121259689303</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146">
-            <v>42.228932857513399</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="C147">
-            <v>42.251517057418802</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="C148">
-            <v>42.268521785735999</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="C149">
-            <v>42.318807840347198</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="C150">
-            <v>42.349621057510298</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="C151">
-            <v>42.352500915527301</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="C152">
-            <v>42.358370065689002</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="C153">
-            <v>42.358891010284403</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="C154">
-            <v>42.413557767867999</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="C155">
-            <v>42.424127817153902</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="C156">
-            <v>42.436691999435403</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="C157">
-            <v>42.442346096038797</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="C158">
-            <v>42.4445028305053</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="C159">
-            <v>42.523806810379</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="C160">
-            <v>42.531282186508101</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="C161">
-            <v>42.566397905349703</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="C162">
-            <v>42.627576828002901</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="C163">
-            <v>42.6625881195068</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="C164">
-            <v>42.6818718910217</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="C165">
-            <v>42.6844735145568</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="C166">
-            <v>42.769468069076503</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="C167">
-            <v>42.771362543106001</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="C168">
-            <v>42.856965780258101</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="C169">
-            <v>42.865405321121202</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="C170">
-            <v>42.879613399505601</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="C171">
-            <v>42.905880928039501</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="C172">
-            <v>42.911568164825397</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="C173">
-            <v>42.913302421569803</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="C174">
-            <v>42.932522296905503</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="C175">
-            <v>42.9331662654876</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="C176">
-            <v>42.946039199829102</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="C177">
-            <v>42.967180013656602</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="C178">
-            <v>42.985098361968902</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="C179">
-            <v>42.999674081802297</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="C180">
-            <v>43.045230865478501</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="C181">
-            <v>43.091138601303101</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="C182">
-            <v>43.128152370452803</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="C183">
-            <v>43.134406089782701</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="C184">
-            <v>43.135808944702099</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="C185">
-            <v>43.172307491302398</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="C186">
-            <v>43.181159734725902</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="C187">
-            <v>43.193668842315603</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="C188">
-            <v>43.220036029815603</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="C189">
-            <v>43.234232187271097</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="C190">
-            <v>43.235066652297903</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="C191">
-            <v>43.238157272338803</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="C192">
-            <v>43.260254144668501</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="C193">
-            <v>43.3010220527648</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="C194">
-            <v>43.307342529296797</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="C195">
-            <v>43.309490442276001</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="C196">
-            <v>43.318706750869701</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="C197">
-            <v>43.321474075317298</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="C198">
-            <v>43.371376037597599</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="C199">
-            <v>43.386259555816601</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="C200">
-            <v>43.399369478225701</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="C201">
-            <v>43.442611455917302</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="C202">
-            <v>43.497052192687903</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="C203">
-            <v>43.5495958328247</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="C204">
-            <v>43.587282657623199</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="C205">
-            <v>43.605175971984799</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="C206">
-            <v>43.611382484436</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="C207">
-            <v>43.612884283065704</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="C208">
-            <v>43.618268013000403</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="C209">
-            <v>43.643909931182797</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="C210">
-            <v>43.648849010467501</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="C211">
-            <v>43.672170877456601</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="C212">
-            <v>43.681689977645803</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="C213">
-            <v>43.688419342041001</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="C214">
-            <v>43.691610813140798</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="C215">
-            <v>43.698609828948896</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="C216">
-            <v>43.7229645252227</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="C217">
-            <v>43.732706546783398</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="C218">
-            <v>43.760464668273897</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="C219">
-            <v>43.763365030288597</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="C220">
-            <v>43.7650465965271</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="C221">
-            <v>43.803500175476003</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="C222">
-            <v>43.839854001998901</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="C223">
-            <v>43.845637321472097</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="C224">
-            <v>43.863536596298196</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="C225">
-            <v>43.874171495437601</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="C226">
-            <v>43.875598907470703</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="C227">
-            <v>43.898994207382202</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="C228">
-            <v>43.947397708892801</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="C229">
-            <v>43.948550701141301</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="C230">
-            <v>43.960348606109598</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="C231">
-            <v>43.965576171875</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="C232">
-            <v>43.9835426807403</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="C233">
-            <v>43.997425556182797</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="C234">
-            <v>43.997515916824298</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="C235">
-            <v>44.033267498016301</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="C236">
-            <v>44.060496807098303</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="C237">
-            <v>44.060921669006298</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="C238">
-            <v>44.062079668045001</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="C239">
-            <v>44.071000337600701</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="C240">
-            <v>44.072816610336297</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="C241">
-            <v>44.128058671951202</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="C242">
-            <v>44.129954576492302</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="C243">
-            <v>44.131682872772203</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="C244">
-            <v>44.162503004074097</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="C245">
-            <v>44.170527219772303</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="C246">
-            <v>44.182294368743896</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="C247">
-            <v>44.197155475616398</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="C248">
-            <v>44.205445289611802</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="C249">
-            <v>44.2106578350067</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="C250">
-            <v>44.226575851440401</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="C251">
-            <v>44.228543281555098</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="C252">
-            <v>44.234397888183501</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="C253">
-            <v>44.252347469329798</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="C254">
-            <v>44.257598638534503</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="C255">
-            <v>44.274377346038797</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="C256">
-            <v>44.286827802658003</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="C257">
-            <v>44.300719022750798</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="C258">
-            <v>44.3221018314361</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="C259">
-            <v>44.336349010467501</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="C260">
-            <v>44.390426158905001</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="C261">
-            <v>44.426829338073702</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="C262">
-            <v>44.460177898406897</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="C263">
-            <v>44.499834299087503</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="C264">
-            <v>44.5238003730773</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="C265">
-            <v>44.550935506820601</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="C266">
-            <v>44.562706947326603</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="C267">
-            <v>44.567115306854198</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="C268">
-            <v>44.571861743927002</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="C269">
-            <v>44.580944299697798</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="C270">
-            <v>44.591602325439403</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="C271">
-            <v>44.609117269515899</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="C272">
-            <v>44.6096222400665</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="C273">
-            <v>44.6152601242065</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="C274">
-            <v>44.653212547302203</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="C275">
-            <v>44.666015863418501</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="C276">
-            <v>44.666210174560497</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="C277">
-            <v>44.680536985397303</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="C278">
-            <v>44.718685150146399</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="C279">
-            <v>44.724587202072101</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="C280">
-            <v>44.753130912780698</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="C281">
-            <v>44.7636234760284</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="C282">
-            <v>44.784170866012502</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="C283">
-            <v>44.806370973587001</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="C284">
-            <v>44.8066852092742</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="C285">
-            <v>44.841856718063298</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="C286">
-            <v>44.843983173370297</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="C287">
-            <v>44.857323884963897</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="C288">
-            <v>44.859478473663302</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="C289">
-            <v>44.895108222961397</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="C290">
-            <v>44.9086461067199</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="C291">
-            <v>44.925912380218499</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="C292">
-            <v>44.930237531661902</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="C293">
-            <v>44.935094118118201</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="C294">
-            <v>44.9444739818573</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="C295">
-            <v>44.952996969223001</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="C296">
-            <v>44.994090557098303</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="C297">
-            <v>44.995023488998399</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="C298">
-            <v>45.009329080581601</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="C299">
-            <v>45.016829252242999</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="C300">
-            <v>45.016978740692103</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="C301">
-            <v>45.052694797515798</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="C302">
-            <v>45.057857751846299</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="C303">
-            <v>45.058869123458798</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="C304">
-            <v>45.097596645355203</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="C305">
-            <v>45.163024425506499</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="C306">
-            <v>45.163092613220201</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="C307">
-            <v>45.167019844055098</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="C308">
-            <v>45.192984104156402</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="C309">
-            <v>45.193182229995699</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="C310">
-            <v>45.196192979812601</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="C311">
-            <v>45.229972600936797</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="C312">
-            <v>45.247604131698601</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="C313">
-            <v>45.254473686218198</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="C314">
-            <v>45.258249759674001</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="C315">
-            <v>45.262084484100299</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="C316">
-            <v>45.278734922409001</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="C317">
-            <v>45.2912726402282</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="C318">
-            <v>45.307362556457498</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="C319">
-            <v>45.312657594680701</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="C320">
-            <v>45.33784866333</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="C321">
-            <v>45.375327825546201</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="C322">
-            <v>45.3793880939483</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="C323">
-            <v>45.384907245635901</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="C324">
-            <v>45.388842344284001</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="C325">
-            <v>45.391067028045597</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="C326">
-            <v>45.3958256244659</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="C327">
-            <v>45.403505325317298</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="C328">
-            <v>45.413434982299798</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="C329">
-            <v>45.424707412719698</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="C330">
-            <v>45.427094221115098</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="C331">
-            <v>45.439746141433702</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="C332">
-            <v>45.443207502365098</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="C333">
-            <v>45.450200319290097</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="C334">
-            <v>45.454803943633998</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="C335">
-            <v>45.4596848487854</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="C336">
-            <v>45.501110553741398</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="C337">
-            <v>45.512411355972198</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="C338">
-            <v>45.525185823440502</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="C339">
-            <v>45.532426118850701</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="C340">
-            <v>45.537574529647799</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="C341">
-            <v>45.555394887924102</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="C342">
-            <v>45.566231250762897</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="C343">
-            <v>45.569766521453801</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="C344">
-            <v>45.587381124496403</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="C345">
-            <v>45.5970585346221</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="C346">
-            <v>45.605338811874297</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="C347">
-            <v>45.633305788040097</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="C348">
-            <v>45.646126270294097</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="C349">
-            <v>45.6534519195556</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="C350">
-            <v>45.676101922988799</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="C351">
-            <v>45.695095777511597</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="C352">
-            <v>45.722459316253598</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="C353">
-            <v>45.758194446563699</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="C354">
-            <v>45.759580373764003</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="C355">
-            <v>45.775067567825303</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="C356">
-            <v>45.790654420852597</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="C357">
-            <v>45.844080448150599</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="C358">
-            <v>45.891671657562199</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="C359">
-            <v>45.919471025466898</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="C360">
-            <v>45.926391124725299</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="C361">
-            <v>45.933620691299403</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="C362">
-            <v>45.938855171203599</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="C363">
-            <v>45.9397101402282</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="C364">
-            <v>45.955450057983398</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="C365">
-            <v>45.959198474883998</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="C366">
-            <v>45.975503683090203</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="C367">
-            <v>45.987633228302002</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="C368">
-            <v>45.991843223571699</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="C369">
-            <v>46.058189630508402</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="C370">
-            <v>46.128801584243703</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="C371">
-            <v>46.137619972228997</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="C372">
-            <v>46.144797325134199</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="C373">
-            <v>46.173938989639197</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="C374">
-            <v>46.200977325439403</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="C375">
-            <v>46.227189779281602</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="C376">
-            <v>46.270156621932898</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="C377">
-            <v>46.358354806900003</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="C378">
-            <v>46.363427162170403</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="C379">
-            <v>46.458047151565502</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="C380">
-            <v>46.470415830612097</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="C381">
-            <v>46.471030473709099</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="C382">
-            <v>46.4971506595611</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="C383">
-            <v>46.577507495880099</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="C384">
-            <v>46.609186887740996</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="C385">
-            <v>46.631246328353797</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="C386">
-            <v>46.723396062850902</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="C387">
-            <v>46.740284681320098</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="C388">
-            <v>46.786615371704102</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="C389">
-            <v>46.796320438385003</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="C390">
-            <v>46.863877773284898</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="C391">
-            <v>46.918731689453097</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="C392">
-            <v>47.026904344558702</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="C393">
-            <v>47.071325063705402</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="C394">
-            <v>47.134327173232997</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="C395">
-            <v>47.192278385162297</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="C396">
-            <v>47.211638212203901</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="C397">
-            <v>47.345721721649099</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="C398">
-            <v>47.393084764480498</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="C399">
-            <v>47.393377542495699</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="C400">
-            <v>47.398205518722499</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="C401">
-            <v>47.4043321609497</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="C402">
-            <v>47.442532300949097</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="C403">
-            <v>47.480128526687601</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="C404">
-            <v>47.572776556015</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="C405">
-            <v>47.612318277359002</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="C406">
-            <v>47.641517162322998</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="C407">
-            <v>47.689261913299497</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="C408">
-            <v>47.745564222335801</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="C409">
-            <v>47.878662586212101</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="C410">
-            <v>47.888526916503899</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="C411">
-            <v>47.950707435607903</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="C412">
-            <v>48.052272796630803</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="C413">
-            <v>48.4804239273071</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="C414">
-            <v>49.286062479019101</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="C415">
-            <v>49.528100252151397</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="C416">
-            <v>66.733405828475895</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="C417">
-            <v>66.857932090759206</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="C418">
-            <v>67.155143260955796</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="C419">
-            <v>67.295885801315293</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="C420">
-            <v>67.638550281524601</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="C421">
-            <v>67.660696268081594</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="C422">
-            <v>67.682394981384206</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="C423">
-            <v>67.838798999786306</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="C424">
-            <v>67.888839960098196</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="C425">
-            <v>68.037581920623694</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="C426">
-            <v>68.0811638832092</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="C427">
-            <v>68.089385032653794</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="C428">
-            <v>68.229186534881507</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="C429">
-            <v>68.289241552352905</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="C430">
-            <v>68.330769538879395</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="C431">
-            <v>68.395464420318604</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="C432">
-            <v>68.407509565353394</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="C433">
-            <v>68.567625761032104</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="C434">
-            <v>68.611433029174805</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="C435">
-            <v>68.672581911086994</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="C436">
-            <v>68.749964237213106</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="C437">
-            <v>68.789837837219196</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="C438">
-            <v>68.828320264816199</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="C439">
-            <v>68.880414009094196</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="C440">
-            <v>69.099427700042696</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="C441">
-            <v>69.168648242950397</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="C442">
-            <v>69.217960596084595</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="C443">
-            <v>69.277251005172701</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="C444">
-            <v>69.2815873622894</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="C445">
-            <v>69.509618282318101</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="C446">
-            <v>69.966672658920203</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="C447">
-            <v>70.046605348586994</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="C448">
-            <v>70.239863395690904</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="C449">
-            <v>70.285447120666504</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="C450">
-            <v>70.356770515441895</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="C451">
-            <v>70.450013875961304</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="C452">
-            <v>70.488851308822603</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="C453">
-            <v>70.538025617599402</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="C454">
-            <v>70.5618283748626</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="C455">
-            <v>70.6587491035461</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="C456">
-            <v>70.671272516250596</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="C457">
-            <v>70.709304094314504</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="C458">
-            <v>70.814638853073106</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="C459">
-            <v>70.823890447616506</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="C460">
-            <v>71.465107917785602</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="C461">
-            <v>71.630807399749699</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="C462">
-            <v>71.710215568542395</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="C463">
-            <v>71.833226919174194</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="C464">
-            <v>71.883253812789903</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="C465">
-            <v>71.892297267913804</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="C466">
-            <v>72.0046067237854</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="C467">
-            <v>72.023242712020803</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="C468">
-            <v>72.180747747421194</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="C469">
-            <v>72.335925579071002</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="C470">
-            <v>72.347351074218693</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="C471">
-            <v>72.384827136993394</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="C472">
-            <v>72.4023118019104</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="C473">
-            <v>72.438716411590505</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="C474">
-            <v>72.479657173156696</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="C475">
-            <v>72.528099060058594</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="C476">
-            <v>72.536107540130601</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="C477">
-            <v>72.5810577869415</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="C478">
-            <v>72.609908819198594</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="C479">
-            <v>72.670960903167696</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="C480">
-            <v>72.677438497543307</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="C481">
-            <v>72.836198568344102</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="C482">
-            <v>72.842140674590993</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="C483">
-            <v>72.864149093627901</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="C484">
-            <v>72.878556966781602</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="C485">
-            <v>72.953633546829195</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="C486">
-            <v>72.9857466220855</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="C487">
-            <v>73.048368453979407</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="C488">
-            <v>73.118092298507605</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="C489">
-            <v>73.129292488098102</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="C490">
-            <v>73.373450994491506</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="C491">
-            <v>73.383203744888306</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="C492">
-            <v>73.418907403945894</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="C493">
-            <v>73.422434091567993</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="C494">
-            <v>73.434002161026001</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="C495">
-            <v>73.446720123291001</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="C496">
-            <v>73.4695627689361</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="C497">
-            <v>73.485688686370807</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="C498">
-            <v>73.521605968475299</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="C499">
-            <v>73.585081100463796</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="C500">
-            <v>73.590167284011798</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="C501">
-            <v>73.604563236236501</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="C502">
-            <v>73.622188806533799</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="C503">
-            <v>73.638948678970294</v>
-          </cell>
-        </row>
-        <row r="504">
-          <cell r="C504">
-            <v>73.719855546951294</v>
-          </cell>
-        </row>
-        <row r="505">
-          <cell r="C505">
-            <v>73.750639677047701</v>
-          </cell>
-        </row>
-        <row r="506">
-          <cell r="C506">
-            <v>73.775538444519</v>
-          </cell>
-        </row>
-        <row r="507">
-          <cell r="C507">
-            <v>73.780031442642198</v>
-          </cell>
-        </row>
-        <row r="508">
-          <cell r="C508">
-            <v>73.8028178215026</v>
-          </cell>
-        </row>
-        <row r="509">
-          <cell r="C509">
-            <v>73.808312416076603</v>
-          </cell>
-        </row>
-        <row r="510">
-          <cell r="C510">
-            <v>73.8497056961059</v>
-          </cell>
-        </row>
-        <row r="511">
-          <cell r="C511">
-            <v>73.922328710556002</v>
-          </cell>
-        </row>
-        <row r="512">
-          <cell r="C512">
-            <v>73.945063591003404</v>
-          </cell>
-        </row>
-        <row r="513">
-          <cell r="C513">
-            <v>73.967902421951294</v>
-          </cell>
-        </row>
-        <row r="514">
-          <cell r="C514">
-            <v>74.013869762420597</v>
-          </cell>
-        </row>
-        <row r="515">
-          <cell r="C515">
-            <v>74.163921833038302</v>
-          </cell>
-        </row>
-        <row r="516">
-          <cell r="C516">
-            <v>74.215514421462998</v>
-          </cell>
-        </row>
-        <row r="517">
-          <cell r="C517">
-            <v>74.314890146255493</v>
-          </cell>
-        </row>
-        <row r="518">
-          <cell r="C518">
-            <v>74.331491231918307</v>
-          </cell>
-        </row>
-        <row r="519">
-          <cell r="C519">
-            <v>74.342559576034503</v>
-          </cell>
-        </row>
-        <row r="520">
-          <cell r="C520">
-            <v>74.3710036277771</v>
-          </cell>
-        </row>
-        <row r="521">
-          <cell r="C521">
-            <v>74.392728328704806</v>
-          </cell>
-        </row>
-        <row r="522">
-          <cell r="C522">
-            <v>74.396726369857703</v>
-          </cell>
-        </row>
-        <row r="523">
-          <cell r="C523">
-            <v>74.447885036468506</v>
-          </cell>
-        </row>
-        <row r="524">
-          <cell r="C524">
-            <v>74.454107046127305</v>
-          </cell>
-        </row>
-        <row r="525">
-          <cell r="C525">
-            <v>74.479786872863698</v>
-          </cell>
-        </row>
-        <row r="526">
-          <cell r="C526">
-            <v>74.4996178150177</v>
-          </cell>
-        </row>
-        <row r="527">
-          <cell r="C527">
-            <v>74.522131681442204</v>
-          </cell>
-        </row>
-        <row r="528">
-          <cell r="C528">
-            <v>74.557572841644202</v>
-          </cell>
-        </row>
-        <row r="529">
-          <cell r="C529">
-            <v>74.591651916503906</v>
-          </cell>
-        </row>
-        <row r="530">
-          <cell r="C530">
-            <v>74.616153955459595</v>
-          </cell>
-        </row>
-        <row r="531">
-          <cell r="C531">
-            <v>74.672757148742605</v>
-          </cell>
-        </row>
-        <row r="532">
-          <cell r="C532">
-            <v>74.716759204864502</v>
-          </cell>
-        </row>
-        <row r="533">
-          <cell r="C533">
-            <v>74.742641925811697</v>
-          </cell>
-        </row>
-        <row r="534">
-          <cell r="C534">
-            <v>74.7663667201995</v>
-          </cell>
-        </row>
-        <row r="535">
-          <cell r="C535">
-            <v>74.789553165435706</v>
-          </cell>
-        </row>
-        <row r="536">
-          <cell r="C536">
-            <v>74.805198669433594</v>
-          </cell>
-        </row>
-        <row r="537">
-          <cell r="C537">
-            <v>74.839302301406804</v>
-          </cell>
-        </row>
-        <row r="538">
-          <cell r="C538">
-            <v>74.884801387786794</v>
-          </cell>
-        </row>
-        <row r="539">
-          <cell r="C539">
-            <v>74.921513080596895</v>
-          </cell>
-        </row>
-        <row r="540">
-          <cell r="C540">
-            <v>74.9236931800842</v>
-          </cell>
-        </row>
-        <row r="541">
-          <cell r="C541">
-            <v>74.924494981765704</v>
-          </cell>
-        </row>
-        <row r="542">
-          <cell r="C542">
-            <v>74.942720651626502</v>
-          </cell>
-        </row>
-        <row r="543">
-          <cell r="C543">
-            <v>75.012646436691199</v>
-          </cell>
-        </row>
-        <row r="544">
-          <cell r="C544">
-            <v>75.019248008727999</v>
-          </cell>
-        </row>
-        <row r="545">
-          <cell r="C545">
-            <v>75.0361008644104</v>
-          </cell>
-        </row>
-        <row r="546">
-          <cell r="C546">
-            <v>75.067692279815603</v>
-          </cell>
-        </row>
-        <row r="547">
-          <cell r="C547">
-            <v>75.240975856781006</v>
-          </cell>
-        </row>
-        <row r="548">
-          <cell r="C548">
-            <v>75.241117238998399</v>
-          </cell>
-        </row>
-        <row r="549">
-          <cell r="C549">
-            <v>75.248481988906804</v>
-          </cell>
-        </row>
-        <row r="550">
-          <cell r="C550">
-            <v>75.269627332687307</v>
-          </cell>
-        </row>
-        <row r="551">
-          <cell r="C551">
-            <v>75.328434228897095</v>
-          </cell>
-        </row>
-        <row r="552">
-          <cell r="C552">
-            <v>75.361828565597506</v>
-          </cell>
-        </row>
-        <row r="553">
-          <cell r="C553">
-            <v>75.387618303298893</v>
-          </cell>
-        </row>
-        <row r="554">
-          <cell r="C554">
-            <v>75.472258329391394</v>
-          </cell>
-        </row>
-        <row r="555">
-          <cell r="C555">
-            <v>75.494898080825806</v>
-          </cell>
-        </row>
-        <row r="556">
-          <cell r="C556">
-            <v>75.546416282653794</v>
-          </cell>
-        </row>
-        <row r="557">
-          <cell r="C557">
-            <v>75.589352369308401</v>
-          </cell>
-        </row>
-        <row r="558">
-          <cell r="C558">
-            <v>75.677812576293903</v>
-          </cell>
-        </row>
-        <row r="559">
-          <cell r="C559">
-            <v>75.679233551025305</v>
-          </cell>
-        </row>
-        <row r="560">
-          <cell r="C560">
-            <v>75.684691190719604</v>
-          </cell>
-        </row>
-        <row r="561">
-          <cell r="C561">
-            <v>75.689525127410803</v>
-          </cell>
-        </row>
-        <row r="562">
-          <cell r="C562">
-            <v>75.809146881103501</v>
-          </cell>
-        </row>
-        <row r="563">
-          <cell r="C563">
-            <v>75.853516340255695</v>
-          </cell>
-        </row>
-        <row r="564">
-          <cell r="C564">
-            <v>75.856049776077199</v>
-          </cell>
-        </row>
-        <row r="565">
-          <cell r="C565">
-            <v>75.858301401138306</v>
-          </cell>
-        </row>
-        <row r="566">
-          <cell r="C566">
-            <v>75.871187448501502</v>
-          </cell>
-        </row>
-        <row r="567">
-          <cell r="C567">
-            <v>75.873607873916598</v>
-          </cell>
-        </row>
-        <row r="568">
-          <cell r="C568">
-            <v>75.902206897735596</v>
-          </cell>
-        </row>
-        <row r="569">
-          <cell r="C569">
-            <v>75.923343896865802</v>
-          </cell>
-        </row>
-        <row r="570">
-          <cell r="C570">
-            <v>75.931851863860999</v>
-          </cell>
-        </row>
-        <row r="571">
-          <cell r="C571">
-            <v>75.980058908462496</v>
-          </cell>
-        </row>
-        <row r="572">
-          <cell r="C572">
-            <v>75.984003782272296</v>
-          </cell>
-        </row>
-        <row r="573">
-          <cell r="C573">
-            <v>75.989862442016602</v>
-          </cell>
-        </row>
-        <row r="574">
-          <cell r="C574">
-            <v>76.107064247131305</v>
-          </cell>
-        </row>
-        <row r="575">
-          <cell r="C575">
-            <v>76.152843236923204</v>
-          </cell>
-        </row>
-        <row r="576">
-          <cell r="C576">
-            <v>76.190067052841101</v>
-          </cell>
-        </row>
-        <row r="577">
-          <cell r="C577">
-            <v>76.204591512679997</v>
-          </cell>
-        </row>
-        <row r="578">
-          <cell r="C578">
-            <v>76.363601922988806</v>
-          </cell>
-        </row>
-        <row r="579">
-          <cell r="C579">
-            <v>76.411237001418996</v>
-          </cell>
-        </row>
-        <row r="580">
-          <cell r="C580">
-            <v>76.455774307250906</v>
-          </cell>
-        </row>
-        <row r="581">
-          <cell r="C581">
-            <v>76.480885028839097</v>
-          </cell>
-        </row>
-        <row r="582">
-          <cell r="C582">
-            <v>76.542920589446993</v>
-          </cell>
-        </row>
-        <row r="583">
-          <cell r="C583">
-            <v>76.561997175216604</v>
-          </cell>
-        </row>
-        <row r="584">
-          <cell r="C584">
-            <v>76.605634689330998</v>
-          </cell>
-        </row>
-        <row r="585">
-          <cell r="C585">
-            <v>76.623552322387695</v>
-          </cell>
-        </row>
-        <row r="586">
-          <cell r="C586">
-            <v>76.642654657363806</v>
-          </cell>
-        </row>
-        <row r="587">
-          <cell r="C587">
-            <v>76.722895145416203</v>
-          </cell>
-        </row>
-        <row r="588">
-          <cell r="C588">
-            <v>76.801835298538194</v>
-          </cell>
-        </row>
-        <row r="589">
-          <cell r="C589">
-            <v>76.802826404571505</v>
-          </cell>
-        </row>
-        <row r="590">
-          <cell r="C590">
-            <v>76.816260576248098</v>
-          </cell>
-        </row>
-        <row r="591">
-          <cell r="C591">
-            <v>76.839350700378404</v>
-          </cell>
-        </row>
-        <row r="592">
-          <cell r="C592">
-            <v>76.853981018066406</v>
-          </cell>
-        </row>
-        <row r="593">
-          <cell r="C593">
-            <v>76.858762979507404</v>
-          </cell>
-        </row>
-        <row r="594">
-          <cell r="C594">
-            <v>76.925072908401404</v>
-          </cell>
-        </row>
-        <row r="595">
-          <cell r="C595">
-            <v>76.991917848586994</v>
-          </cell>
-        </row>
-        <row r="596">
-          <cell r="C596">
-            <v>76.998039960861206</v>
-          </cell>
-        </row>
-        <row r="597">
-          <cell r="C597">
-            <v>77.257141590118394</v>
-          </cell>
-        </row>
-        <row r="598">
-          <cell r="C598">
-            <v>77.276287794113102</v>
-          </cell>
-        </row>
-        <row r="599">
-          <cell r="C599">
-            <v>77.473293542861896</v>
-          </cell>
-        </row>
-        <row r="600">
-          <cell r="C600">
-            <v>77.489522695541297</v>
-          </cell>
-        </row>
-        <row r="601">
-          <cell r="C601">
-            <v>77.5177321434021</v>
-          </cell>
-        </row>
-        <row r="602">
-          <cell r="C602">
-            <v>77.539564847946096</v>
-          </cell>
-        </row>
-        <row r="603">
-          <cell r="C603">
-            <v>77.610385656356797</v>
-          </cell>
-        </row>
-        <row r="604">
-          <cell r="C604">
-            <v>77.635814428329397</v>
-          </cell>
-        </row>
-        <row r="605">
-          <cell r="C605">
-            <v>77.636366367340003</v>
-          </cell>
-        </row>
-        <row r="606">
-          <cell r="C606">
-            <v>77.675208568572998</v>
-          </cell>
-        </row>
-        <row r="607">
-          <cell r="C607">
-            <v>77.6985697746276</v>
-          </cell>
-        </row>
-        <row r="608">
-          <cell r="C608">
-            <v>77.763548135757404</v>
-          </cell>
-        </row>
-        <row r="609">
-          <cell r="C609">
-            <v>77.7637810707092</v>
-          </cell>
-        </row>
-        <row r="610">
-          <cell r="C610">
-            <v>77.769612550735403</v>
-          </cell>
-        </row>
-        <row r="611">
-          <cell r="C611">
-            <v>77.770460367202702</v>
-          </cell>
-        </row>
-        <row r="612">
-          <cell r="C612">
-            <v>77.774527788162203</v>
-          </cell>
-        </row>
-        <row r="613">
-          <cell r="C613">
-            <v>77.785003662109304</v>
-          </cell>
-        </row>
-        <row r="614">
-          <cell r="C614">
-            <v>77.846093654632497</v>
-          </cell>
-        </row>
-        <row r="615">
-          <cell r="C615">
-            <v>77.861872196197496</v>
-          </cell>
-        </row>
-        <row r="616">
-          <cell r="C616">
-            <v>77.932243585586505</v>
-          </cell>
-        </row>
-        <row r="617">
-          <cell r="C617">
-            <v>77.949188709259005</v>
-          </cell>
-        </row>
-        <row r="618">
-          <cell r="C618">
-            <v>77.959423303604098</v>
-          </cell>
-        </row>
-        <row r="619">
-          <cell r="C619">
-            <v>77.960852622985797</v>
-          </cell>
-        </row>
-        <row r="620">
-          <cell r="C620">
-            <v>78.012371063232393</v>
-          </cell>
-        </row>
-        <row r="621">
-          <cell r="C621">
-            <v>78.056002855300903</v>
-          </cell>
-        </row>
-        <row r="622">
-          <cell r="C622">
-            <v>78.076273202896104</v>
-          </cell>
-        </row>
-        <row r="623">
-          <cell r="C623">
-            <v>78.123303413391099</v>
-          </cell>
-        </row>
-        <row r="624">
-          <cell r="C624">
-            <v>78.178480148315401</v>
-          </cell>
-        </row>
-        <row r="625">
-          <cell r="C625">
-            <v>78.213641166686998</v>
-          </cell>
-        </row>
-        <row r="626">
-          <cell r="C626">
-            <v>78.216040849685598</v>
-          </cell>
-        </row>
-        <row r="627">
-          <cell r="C627">
-            <v>78.220324516296301</v>
-          </cell>
-        </row>
-        <row r="628">
-          <cell r="C628">
-            <v>78.223772048950195</v>
-          </cell>
-        </row>
-        <row r="629">
-          <cell r="C629">
-            <v>78.2837171554565</v>
-          </cell>
-        </row>
-        <row r="630">
-          <cell r="C630">
-            <v>78.302752971649099</v>
-          </cell>
-        </row>
-        <row r="631">
-          <cell r="C631">
-            <v>78.3958513736724</v>
-          </cell>
-        </row>
-        <row r="632">
-          <cell r="C632">
-            <v>78.419255495071397</v>
-          </cell>
-        </row>
-        <row r="633">
-          <cell r="C633">
-            <v>78.423794984817505</v>
-          </cell>
-        </row>
-        <row r="634">
-          <cell r="C634">
-            <v>78.4350426197052</v>
-          </cell>
-        </row>
-        <row r="635">
-          <cell r="C635">
-            <v>78.548310518264699</v>
-          </cell>
-        </row>
-        <row r="636">
-          <cell r="C636">
-            <v>78.577237606048499</v>
-          </cell>
-        </row>
-        <row r="637">
-          <cell r="C637">
-            <v>78.613570690155001</v>
-          </cell>
-        </row>
-        <row r="638">
-          <cell r="C638">
-            <v>78.695575952529893</v>
-          </cell>
-        </row>
-        <row r="639">
-          <cell r="C639">
-            <v>78.706267833709703</v>
-          </cell>
-        </row>
-        <row r="640">
-          <cell r="C640">
-            <v>78.7140119075775</v>
-          </cell>
-        </row>
-        <row r="641">
-          <cell r="C641">
-            <v>78.730074405670095</v>
-          </cell>
-        </row>
-        <row r="642">
-          <cell r="C642">
-            <v>78.764604330062795</v>
-          </cell>
-        </row>
-        <row r="643">
-          <cell r="C643">
-            <v>78.7792325019836</v>
-          </cell>
-        </row>
-        <row r="644">
-          <cell r="C644">
-            <v>78.804940700531006</v>
-          </cell>
-        </row>
-        <row r="645">
-          <cell r="C645">
-            <v>78.859905481338501</v>
-          </cell>
-        </row>
-        <row r="646">
-          <cell r="C646">
-            <v>78.898670673370304</v>
-          </cell>
-        </row>
-        <row r="647">
-          <cell r="C647">
-            <v>78.904083967208805</v>
-          </cell>
-        </row>
-        <row r="648">
-          <cell r="C648">
-            <v>78.997853279113698</v>
-          </cell>
-        </row>
-        <row r="649">
-          <cell r="C649">
-            <v>79.035735130310002</v>
-          </cell>
-        </row>
-        <row r="650">
-          <cell r="C650">
-            <v>79.043221712112398</v>
-          </cell>
-        </row>
-        <row r="651">
-          <cell r="C651">
-            <v>79.079917907714801</v>
-          </cell>
-        </row>
-        <row r="652">
-          <cell r="C652">
-            <v>79.096866369247394</v>
-          </cell>
-        </row>
-        <row r="653">
-          <cell r="C653">
-            <v>79.097239494323702</v>
-          </cell>
-        </row>
-        <row r="654">
-          <cell r="C654">
-            <v>79.161995887756305</v>
-          </cell>
-        </row>
-        <row r="655">
-          <cell r="C655">
-            <v>79.250950098037706</v>
-          </cell>
-        </row>
-        <row r="656">
-          <cell r="C656">
-            <v>79.263213396072302</v>
-          </cell>
-        </row>
-        <row r="657">
-          <cell r="C657">
-            <v>79.291210651397705</v>
-          </cell>
-        </row>
-        <row r="658">
-          <cell r="C658">
-            <v>79.306961297988806</v>
-          </cell>
-        </row>
-        <row r="659">
-          <cell r="C659">
-            <v>79.363035202026296</v>
-          </cell>
-        </row>
-        <row r="660">
-          <cell r="C660">
-            <v>79.432925224304199</v>
-          </cell>
-        </row>
-        <row r="661">
-          <cell r="C661">
-            <v>79.435733795166001</v>
-          </cell>
-        </row>
-        <row r="662">
-          <cell r="C662">
-            <v>79.565561532974201</v>
-          </cell>
-        </row>
-        <row r="663">
-          <cell r="C663">
-            <v>79.622941017150794</v>
-          </cell>
-        </row>
-        <row r="664">
-          <cell r="C664">
-            <v>79.639471054077106</v>
-          </cell>
-        </row>
-        <row r="665">
-          <cell r="C665">
-            <v>79.670408725738497</v>
-          </cell>
-        </row>
-        <row r="666">
-          <cell r="C666">
-            <v>79.679209947586003</v>
-          </cell>
-        </row>
-        <row r="667">
-          <cell r="C667">
-            <v>79.891584396362305</v>
-          </cell>
-        </row>
-        <row r="668">
-          <cell r="C668">
-            <v>80.331362485885606</v>
-          </cell>
-        </row>
-        <row r="669">
-          <cell r="C669">
-            <v>80.446815729141207</v>
-          </cell>
-        </row>
-        <row r="670">
-          <cell r="C670">
-            <v>80.458104610443101</v>
-          </cell>
-        </row>
-        <row r="671">
-          <cell r="C671">
-            <v>80.461395740509005</v>
-          </cell>
-        </row>
-        <row r="672">
-          <cell r="C672">
-            <v>80.479806423187199</v>
-          </cell>
-        </row>
-        <row r="673">
-          <cell r="C673">
-            <v>80.635920286178504</v>
-          </cell>
-        </row>
-        <row r="674">
-          <cell r="C674">
-            <v>80.7134175300598</v>
-          </cell>
-        </row>
-        <row r="675">
-          <cell r="C675">
-            <v>80.796975612640296</v>
-          </cell>
-        </row>
-        <row r="676">
-          <cell r="C676">
-            <v>80.875798225402804</v>
-          </cell>
-        </row>
-        <row r="677">
-          <cell r="C677">
-            <v>80.926764011383</v>
-          </cell>
-        </row>
-        <row r="678">
-          <cell r="C678">
-            <v>81.024309873580904</v>
-          </cell>
-        </row>
-        <row r="679">
-          <cell r="C679">
-            <v>81.053175687789903</v>
-          </cell>
-        </row>
-        <row r="680">
-          <cell r="C680">
-            <v>81.259883642196598</v>
-          </cell>
-        </row>
-        <row r="681">
-          <cell r="C681">
-            <v>81.657001018524099</v>
-          </cell>
-        </row>
-        <row r="682">
-          <cell r="C682">
-            <v>81.860392093658405</v>
-          </cell>
-        </row>
-        <row r="683">
-          <cell r="C683">
-            <v>82.455202341079698</v>
-          </cell>
-        </row>
-        <row r="684">
-          <cell r="C684">
-            <v>82.456620931625295</v>
-          </cell>
-        </row>
-        <row r="685">
-          <cell r="C685">
-            <v>82.871417760848999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F197" totalsRowShown="0">
-  <autoFilter ref="A1:F197"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F197" totalsRowShown="0">
+  <autoFilter ref="A1:F197" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:F197">
     <sortCondition ref="E1:E197"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="query hash"/>
-    <tableColumn id="2" name="query" dataDxfId="33"/>
-    <tableColumn id="3" name="tables_involved"/>
-    <tableColumn id="4" name="% of possible queries executed"/>
-    <tableColumn id="5" name="n of tables"/>
-    <tableColumn id="6" name="time in s"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="query hash"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="query" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tables_involved"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="% of possible queries executed"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="n of tables"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="time in s"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="query hash"/>
-    <tableColumn id="2" name="query" dataDxfId="32"/>
-    <tableColumn id="3" name="tables_involved"/>
-    <tableColumn id="4" name="% of possible queries executed"/>
-    <tableColumn id="5" name="n of tables"/>
-    <tableColumn id="6" name="time in s"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="query hash"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="query" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="tables_involved"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="% of possible queries executed"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="n of tables"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="time in s"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F29" totalsRowShown="0" dataDxfId="22" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
-  <autoFilter ref="A1:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:F29" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:F29" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="query hash" dataDxfId="28"/>
-    <tableColumn id="2" name="query" dataDxfId="23"/>
-    <tableColumn id="3" name="tables_involved" dataDxfId="27"/>
-    <tableColumn id="4" name="% of possible queries executed" dataDxfId="26"/>
-    <tableColumn id="5" name="n of tables" dataDxfId="25"/>
-    <tableColumn id="6" name="time in s" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="query hash" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="query" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="tables_involved" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="% of possible queries executed" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="n of tables" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="time in s" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F61" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:F61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A1:F61" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:F61" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="query hash" dataDxfId="18"/>
-    <tableColumn id="2" name="query" dataDxfId="12"/>
-    <tableColumn id="3" name="tables_involved" dataDxfId="17"/>
-    <tableColumn id="4" name="% of possible queries executed" dataDxfId="16"/>
-    <tableColumn id="5" name="n of tables" dataDxfId="15"/>
-    <tableColumn id="6" name="time in s" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="query hash" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="query" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="tables_involved" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="% of possible queries executed" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="n of tables" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="time in s" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F101" totalsRowShown="0" headerRowDxfId="2" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:F101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table6" displayName="Table6" ref="A1:F101" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="query hash" dataDxfId="7"/>
-    <tableColumn id="2" name="query" dataDxfId="1"/>
-    <tableColumn id="3" name="tables_involved" dataDxfId="6"/>
-    <tableColumn id="4" name="% of possible queries executed" dataDxfId="5"/>
-    <tableColumn id="5" name="n of tables" dataDxfId="4"/>
-    <tableColumn id="6" name="time in s" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="query hash" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="query" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="tables_involved" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="% of possible queries executed" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="n of tables" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="time in s" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12283,7 +10354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16241,16 +14312,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>334</v>
       </c>
@@ -16270,7 +14341,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -16289,8 +14360,15 @@
       <c r="F2">
         <v>37.7245452404022</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="G2">
+        <v>40.212000000000003</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE($G$2:$G$6)</f>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -16309,8 +14387,15 @@
       <c r="F3">
         <v>39.023679494857703</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="G3">
+        <v>43.31</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="0">AVERAGE($G$2:$G$6)</f>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16329,8 +14414,15 @@
       <c r="F4">
         <v>39.401917457580502</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="G4">
+        <v>42.24</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -16349,8 +14441,15 @@
       <c r="F5">
         <v>39.980157613754201</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="G5">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -16369,8 +14468,15 @@
       <c r="F6">
         <v>40.174751281738203</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="G6">
+        <v>41.25</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -16389,8 +14495,12 @@
       <c r="F7">
         <v>40.722795486450103</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -16409,8 +14519,12 @@
       <c r="F8">
         <v>41.022644281387301</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -16428,6 +14542,15 @@
       </c>
       <c r="F9">
         <v>41.312268972396801</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>41.584400000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -16440,16 +14563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H2" sqref="H2:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" t="s">
         <v>334</v>
       </c>
@@ -16469,7 +14592,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -16488,8 +14611,15 @@
       <c r="F2">
         <v>27.399390220642001</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="G2">
+        <v>46.99</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE($G$2:$G$6)</f>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -16508,8 +14638,15 @@
       <c r="F3">
         <v>28.833361864089898</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="G3">
+        <v>44.63</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H29" si="0">AVERAGE($G$2:$G$6)</f>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -16528,8 +14665,15 @@
       <c r="F4">
         <v>30.251084804534901</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="G4">
+        <v>44.81</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -16548,8 +14692,15 @@
       <c r="F5">
         <v>31.070029020309399</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="G5">
+        <v>46.99</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -16568,8 +14719,15 @@
       <c r="F6">
         <v>46.014924764633101</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="G6">
+        <v>47.26</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -16588,8 +14746,12 @@
       <c r="F7">
         <v>46.699423789977999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -16608,8 +14770,12 @@
       <c r="F8">
         <v>48.313107967376702</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -16628,8 +14794,12 @@
       <c r="F9">
         <v>48.6866841316223</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -16648,8 +14818,12 @@
       <c r="F10">
         <v>48.763175964355398</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -16668,8 +14842,12 @@
       <c r="F11">
         <v>49.482953548431396</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -16688,8 +14866,12 @@
       <c r="F12">
         <v>49.910405397415097</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -16708,8 +14890,12 @@
       <c r="F13">
         <v>49.956198453903198</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -16728,8 +14914,12 @@
       <c r="F14">
         <v>49.979338407516401</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -16748,8 +14938,12 @@
       <c r="F15">
         <v>51.423537015914903</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -16768,8 +14962,12 @@
       <c r="F16">
         <v>52.370538711547802</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -16788,8 +14986,12 @@
       <c r="F17">
         <v>52.561200380325303</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -16808,8 +15010,12 @@
       <c r="F18">
         <v>52.603610038757303</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -16828,8 +15034,12 @@
       <c r="F19">
         <v>52.776305437087998</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -16848,8 +15058,12 @@
       <c r="F20">
         <v>53.449887514114302</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -16868,8 +15082,12 @@
       <c r="F21">
         <v>53.620878458023</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -16888,8 +15106,12 @@
       <c r="F22">
         <v>54.258937120437601</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -16908,8 +15130,12 @@
       <c r="F23">
         <v>54.632431983947697</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -16928,8 +15154,12 @@
       <c r="F24">
         <v>55.227980375289903</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -16948,8 +15178,12 @@
       <c r="F25">
         <v>55.417575120925903</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -16968,8 +15202,12 @@
       <c r="F26">
         <v>55.999368667602504</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -16988,8 +15226,12 @@
       <c r="F27">
         <v>56.7354736328125</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -17008,8 +15250,12 @@
       <c r="F28">
         <v>56.750160932540801</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -17027,6 +15273,10 @@
       </c>
       <c r="F29">
         <v>56.779438734054501</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>46.136000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -17039,22 +15289,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="2" t="s">
         <v>334</v>
       </c>
@@ -17074,7 +15324,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -17093,8 +15343,15 @@
       <c r="F2">
         <v>30.382395982742299</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="G2">
+        <v>57.41</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE($G$2:$G$6)</f>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -17113,8 +15370,15 @@
       <c r="F3">
         <v>31.2925269603729</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="G3">
+        <v>53.26</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H61" si="0">AVERAGE($G$2:$G$6)</f>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -17133,8 +15397,15 @@
       <c r="F4">
         <v>31.653524637222201</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="G4">
+        <v>55.96</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -17153,8 +15424,15 @@
       <c r="F5">
         <v>32.890317201614302</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="G5">
+        <v>55.3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -17173,8 +15451,15 @@
       <c r="F6">
         <v>33.198459148406897</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="G6">
+        <v>52.99</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -17193,8 +15478,12 @@
       <c r="F7">
         <v>33.200044870376502</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -17213,8 +15502,12 @@
       <c r="F8">
         <v>34.727166652679401</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -17233,8 +15526,12 @@
       <c r="F9">
         <v>35.062793970107997</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -17253,8 +15550,12 @@
       <c r="F10">
         <v>36.535432815551701</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -17273,8 +15574,12 @@
       <c r="F11">
         <v>36.920622587203901</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -17293,8 +15598,12 @@
       <c r="F12">
         <v>51.721250057220402</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -17313,8 +15622,12 @@
       <c r="F13">
         <v>52.905580520629798</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -17333,8 +15646,12 @@
       <c r="F14">
         <v>53.162135839462202</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -17353,8 +15670,12 @@
       <c r="F15">
         <v>54.311239242553697</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -17373,8 +15694,12 @@
       <c r="F16">
         <v>55.233798980712798</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -17393,8 +15718,12 @@
       <c r="F17">
         <v>55.654960393905597</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -17413,8 +15742,12 @@
       <c r="F18">
         <v>56.130151987075799</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -17433,8 +15766,12 @@
       <c r="F19">
         <v>56.322835922241197</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -17453,8 +15790,12 @@
       <c r="F20">
         <v>56.3755524158477</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -17473,8 +15814,12 @@
       <c r="F21">
         <v>57.015846729278501</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -17493,8 +15838,12 @@
       <c r="F22">
         <v>57.077827453613203</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -17513,8 +15862,12 @@
       <c r="F23">
         <v>57.685279607772799</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -17533,8 +15886,12 @@
       <c r="F24">
         <v>57.760575532913201</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -17553,8 +15910,12 @@
       <c r="F25">
         <v>57.839960575103703</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -17573,8 +15934,12 @@
       <c r="F26">
         <v>58.193585872650097</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -17593,8 +15958,12 @@
       <c r="F27">
         <v>58.243394851684499</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>173</v>
       </c>
@@ -17613,8 +15982,12 @@
       <c r="F28">
         <v>58.708096504211397</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -17633,8 +16006,12 @@
       <c r="F29">
         <v>58.835803508758502</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -17653,8 +16030,12 @@
       <c r="F30">
         <v>59.146315097808802</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>171</v>
       </c>
@@ -17673,8 +16054,12 @@
       <c r="F31">
         <v>59.240445375442498</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -17693,8 +16078,12 @@
       <c r="F32">
         <v>59.691854476928697</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -17713,8 +16102,12 @@
       <c r="F33">
         <v>59.972696065902703</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -17733,8 +16126,12 @@
       <c r="F34">
         <v>60.014406442642198</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -17753,8 +16150,12 @@
       <c r="F35">
         <v>60.245393753051701</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -17773,8 +16174,12 @@
       <c r="F36">
         <v>60.636839866638098</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -17793,8 +16198,12 @@
       <c r="F37">
         <v>61.007929325103703</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -17813,8 +16222,12 @@
       <c r="F38">
         <v>61.039853096008301</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -17833,8 +16246,12 @@
       <c r="F39">
         <v>61.1601402759552</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -17853,8 +16270,12 @@
       <c r="F40">
         <v>61.484226465225198</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -17873,8 +16294,12 @@
       <c r="F41">
         <v>61.9867875576019</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -17893,8 +16318,12 @@
       <c r="F42">
         <v>62.203825950622502</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -17913,8 +16342,12 @@
       <c r="F43">
         <v>62.550661802291799</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>187</v>
       </c>
@@ -17933,8 +16366,12 @@
       <c r="F44">
         <v>62.989017724990802</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -17953,8 +16390,12 @@
       <c r="F45">
         <v>63.0034401416778</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -17973,8 +16414,12 @@
       <c r="F46">
         <v>63.059952974319401</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -17993,8 +16438,12 @@
       <c r="F47">
         <v>63.125332355499197</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -18013,8 +16462,12 @@
       <c r="F48">
         <v>63.321304321288999</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -18033,8 +16486,12 @@
       <c r="F49">
         <v>63.636639356613102</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -18053,8 +16510,12 @@
       <c r="F50">
         <v>63.650132179260197</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -18073,8 +16534,12 @@
       <c r="F51">
         <v>63.843847274780202</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -18093,8 +16558,12 @@
       <c r="F52">
         <v>63.877499818801802</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -18113,8 +16582,12 @@
       <c r="F53">
         <v>64.557465791702199</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -18133,8 +16606,12 @@
       <c r="F54">
         <v>64.680006742477403</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -18153,8 +16630,12 @@
       <c r="F55">
         <v>65.032255172729407</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -18173,8 +16654,12 @@
       <c r="F56">
         <v>65.463764429092393</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -18193,8 +16678,12 @@
       <c r="F57">
         <v>65.726979970932007</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -18213,8 +16702,12 @@
       <c r="F58">
         <v>65.766394376754704</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -18233,8 +16726,12 @@
       <c r="F59">
         <v>65.814358949661198</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -18253,8 +16750,12 @@
       <c r="F60">
         <v>66.174997568130493</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>185</v>
       </c>
@@ -18272,6 +16773,10 @@
       </c>
       <c r="F61">
         <v>67.761249065399099</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>54.984000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -18284,22 +16789,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="68.5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="2" t="s">
         <v>334</v>
       </c>
@@ -18319,7 +16825,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -18338,8 +16844,15 @@
       <c r="F2">
         <v>51.096215009689303</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE($G$2:$G$6)</f>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -18358,8 +16871,15 @@
       <c r="F3">
         <v>51.840619564056396</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="G3">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE($G$2:$G$6)</f>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -18378,8 +16898,15 @@
       <c r="F4">
         <v>51.8789188861846</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="G4">
+        <v>56.52</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="0">AVERAGE($G$2:$G$6)</f>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -18398,8 +16925,15 @@
       <c r="F5">
         <v>52.1106083393096</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="G5">
+        <v>55.6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>246</v>
       </c>
@@ -18418,8 +16952,15 @@
       <c r="F6">
         <v>52.1785407066345</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="G6">
+        <v>54.7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -18438,8 +16979,12 @@
       <c r="F7">
         <v>52.268885612487701</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -18458,8 +17003,12 @@
       <c r="F8">
         <v>52.364154100417998</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -18478,8 +17027,12 @@
       <c r="F9">
         <v>52.417233228683401</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>212</v>
       </c>
@@ -18498,8 +17051,12 @@
       <c r="F10">
         <v>52.5751309394836</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>284</v>
       </c>
@@ -18518,8 +17075,12 @@
       <c r="F11">
         <v>52.591636419296201</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>268</v>
       </c>
@@ -18538,8 +17099,12 @@
       <c r="F12">
         <v>52.592880249023402</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>272</v>
       </c>
@@ -18558,8 +17123,12 @@
       <c r="F13">
         <v>52.6883735656738</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -18578,8 +17147,12 @@
       <c r="F14">
         <v>52.721693515777503</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -18598,8 +17171,12 @@
       <c r="F15">
         <v>52.752286672592099</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -18618,8 +17195,12 @@
       <c r="F16">
         <v>52.885697603225701</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>266</v>
       </c>
@@ -18638,8 +17219,12 @@
       <c r="F17">
         <v>53.078898191451998</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>314</v>
       </c>
@@ -18658,8 +17243,12 @@
       <c r="F18">
         <v>53.104223489761303</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>254</v>
       </c>
@@ -18678,8 +17267,12 @@
       <c r="F19">
         <v>53.3458504676818</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>258</v>
       </c>
@@ -18698,8 +17291,12 @@
       <c r="F20">
         <v>53.374960184097198</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -18718,8 +17315,12 @@
       <c r="F21">
         <v>53.405731439590397</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -18738,8 +17339,12 @@
       <c r="F22">
         <v>53.480427742004302</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -18758,8 +17363,12 @@
       <c r="F23">
         <v>53.482544898986802</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -18778,8 +17387,12 @@
       <c r="F24">
         <v>53.512217283248901</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>242</v>
       </c>
@@ -18798,8 +17411,12 @@
       <c r="F25">
         <v>53.608274221420203</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -18818,8 +17435,12 @@
       <c r="F26">
         <v>53.634776353836003</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>332</v>
       </c>
@@ -18838,8 +17459,12 @@
       <c r="F27">
         <v>53.678066492080603</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -18858,8 +17483,12 @@
       <c r="F28">
         <v>53.821217060089097</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>234</v>
       </c>
@@ -18878,8 +17507,12 @@
       <c r="F29">
         <v>53.8502612113952</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -18898,8 +17531,12 @@
       <c r="F30">
         <v>53.882440090179401</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -18918,8 +17555,12 @@
       <c r="F31">
         <v>53.940414190292302</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -18938,8 +17579,12 @@
       <c r="F32">
         <v>53.996366977691601</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -18958,8 +17603,12 @@
       <c r="F33">
         <v>54.011079788208001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>290</v>
       </c>
@@ -18978,8 +17627,12 @@
       <c r="F34">
         <v>54.019507169723497</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>330</v>
       </c>
@@ -18998,8 +17651,12 @@
       <c r="F35">
         <v>54.0432703495025</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>262</v>
       </c>
@@ -19018,8 +17675,12 @@
       <c r="F36">
         <v>54.1098504066467</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>256</v>
       </c>
@@ -19038,8 +17699,12 @@
       <c r="F37">
         <v>54.1741523742675</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>324</v>
       </c>
@@ -19058,8 +17723,12 @@
       <c r="F38">
         <v>54.190321207046502</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -19078,8 +17747,12 @@
       <c r="F39">
         <v>54.218320608139003</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>256</v>
       </c>
@@ -19098,8 +17771,12 @@
       <c r="F40">
         <v>54.229149341583202</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>294</v>
       </c>
@@ -19118,8 +17795,12 @@
       <c r="F41">
         <v>54.239287853240903</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -19138,8 +17819,12 @@
       <c r="F42">
         <v>54.353125095367403</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -19158,8 +17843,12 @@
       <c r="F43">
         <v>54.356910705566399</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>310</v>
       </c>
@@ -19178,8 +17867,12 @@
       <c r="F44">
         <v>54.377712965011597</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>252</v>
       </c>
@@ -19198,8 +17891,12 @@
       <c r="F45">
         <v>54.398547887802103</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -19218,8 +17915,12 @@
       <c r="F46">
         <v>54.473747014999297</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>254</v>
       </c>
@@ -19238,8 +17939,12 @@
       <c r="F47">
         <v>54.5093541145324</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -19258,8 +17963,12 @@
       <c r="F48">
         <v>54.542210817337001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>266</v>
       </c>
@@ -19278,8 +17987,12 @@
       <c r="F49">
         <v>54.576895236968902</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>248</v>
       </c>
@@ -19298,8 +18011,12 @@
       <c r="F50">
         <v>54.5930750370025</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>238</v>
       </c>
@@ -19318,8 +18035,12 @@
       <c r="F51">
         <v>54.603032588958698</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>296</v>
       </c>
@@ -19338,8 +18059,12 @@
       <c r="F52">
         <v>54.660228252410803</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>300</v>
       </c>
@@ -19358,8 +18083,12 @@
       <c r="F53">
         <v>54.713551282882598</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -19378,8 +18107,12 @@
       <c r="F54">
         <v>54.770842313766401</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -19398,8 +18131,12 @@
       <c r="F55">
         <v>54.783833742141702</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>320</v>
       </c>
@@ -19418,8 +18155,12 @@
       <c r="F56">
         <v>54.820996999740601</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>260</v>
       </c>
@@ -19438,8 +18179,12 @@
       <c r="F57">
         <v>54.854239463806103</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>302</v>
       </c>
@@ -19458,8 +18203,12 @@
       <c r="F58">
         <v>54.864010810852001</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -19478,8 +18227,12 @@
       <c r="F59">
         <v>54.913079023361199</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>298</v>
       </c>
@@ -19498,8 +18251,12 @@
       <c r="F60">
         <v>54.953108549117999</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>216</v>
       </c>
@@ -19518,8 +18275,12 @@
       <c r="F61">
         <v>54.962764501571598</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" customHeight="1">
       <c r="A62" t="s">
         <v>284</v>
       </c>
@@ -19538,8 +18299,12 @@
       <c r="F62">
         <v>55.107133150100701</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" customHeight="1">
       <c r="A63" t="s">
         <v>284</v>
       </c>
@@ -19558,8 +18323,12 @@
       <c r="F63">
         <v>55.161622047424302</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>236</v>
       </c>
@@ -19578,8 +18347,12 @@
       <c r="F64">
         <v>55.291106224060002</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>248</v>
       </c>
@@ -19598,8 +18371,12 @@
       <c r="F65">
         <v>55.314290285110403</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1">
       <c r="A66" t="s">
         <v>232</v>
       </c>
@@ -19618,8 +18395,12 @@
       <c r="F66">
         <v>55.330251216888399</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -19638,8 +18419,12 @@
       <c r="F67">
         <v>55.354142904281602</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -19658,8 +18443,12 @@
       <c r="F68">
         <v>55.504295825958202</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1">
+      <c r="H68">
+        <f t="shared" ref="H68:H101" si="1">AVERAGE($G$2:$G$6)</f>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -19678,8 +18467,12 @@
       <c r="F69">
         <v>55.579244375228797</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1">
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>238</v>
       </c>
@@ -19698,8 +18491,12 @@
       <c r="F70">
         <v>55.773881435394202</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -19718,8 +18515,12 @@
       <c r="F71">
         <v>55.780682563781703</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>254</v>
       </c>
@@ -19738,8 +18539,12 @@
       <c r="F72">
         <v>56.017968893051098</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1">
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15" customHeight="1">
       <c r="A73" t="s">
         <v>202</v>
       </c>
@@ -19758,8 +18563,12 @@
       <c r="F73">
         <v>56.077961444854701</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1">
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>328</v>
       </c>
@@ -19778,8 +18587,12 @@
       <c r="F74">
         <v>56.319343090057302</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>304</v>
       </c>
@@ -19798,8 +18611,12 @@
       <c r="F75">
         <v>56.332172870635901</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1">
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>322</v>
       </c>
@@ -19818,8 +18635,12 @@
       <c r="F76">
         <v>56.358108043670597</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1">
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>216</v>
       </c>
@@ -19838,8 +18659,12 @@
       <c r="F77">
         <v>56.401856184005702</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1">
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15" customHeight="1">
       <c r="A78" t="s">
         <v>198</v>
       </c>
@@ -19858,8 +18683,12 @@
       <c r="F78">
         <v>56.458839178085299</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1">
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15" customHeight="1">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -19878,8 +18707,12 @@
       <c r="F79">
         <v>56.501140594482401</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1">
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1">
       <c r="A80" t="s">
         <v>200</v>
       </c>
@@ -19898,8 +18731,12 @@
       <c r="F80">
         <v>56.672956228256197</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1">
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" customHeight="1">
       <c r="A81" t="s">
         <v>240</v>
       </c>
@@ -19918,8 +18755,12 @@
       <c r="F81">
         <v>56.698803901672299</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1">
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15" customHeight="1">
       <c r="A82" t="s">
         <v>210</v>
       </c>
@@ -19938,8 +18779,12 @@
       <c r="F82">
         <v>56.717446088790801</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1">
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" customHeight="1">
       <c r="A83" t="s">
         <v>292</v>
       </c>
@@ -19958,8 +18803,12 @@
       <c r="F83">
         <v>56.761905908584502</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1">
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15" customHeight="1">
       <c r="A84" t="s">
         <v>280</v>
       </c>
@@ -19978,8 +18827,12 @@
       <c r="F84">
         <v>56.781658887863102</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1">
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15" customHeight="1">
       <c r="A85" t="s">
         <v>274</v>
       </c>
@@ -19998,8 +18851,12 @@
       <c r="F85">
         <v>56.8435378074646</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1">
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15" customHeight="1">
       <c r="A86" t="s">
         <v>250</v>
       </c>
@@ -20018,8 +18875,12 @@
       <c r="F86">
         <v>56.917001962661701</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1">
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1">
       <c r="A87" t="s">
         <v>276</v>
       </c>
@@ -20038,8 +18899,12 @@
       <c r="F87">
         <v>57.069768428802398</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1">
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1">
       <c r="A88" t="s">
         <v>236</v>
       </c>
@@ -20058,8 +18923,12 @@
       <c r="F88">
         <v>57.290205478668199</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1">
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1">
       <c r="A89" t="s">
         <v>304</v>
       </c>
@@ -20078,8 +18947,12 @@
       <c r="F89">
         <v>57.351307153701697</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1">
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15" customHeight="1">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -20098,8 +18971,12 @@
       <c r="F90">
         <v>57.384586095809901</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1">
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15" customHeight="1">
       <c r="A91" t="s">
         <v>218</v>
       </c>
@@ -20118,8 +18995,12 @@
       <c r="F91">
         <v>57.484482288360503</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1">
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15" customHeight="1">
       <c r="A92" t="s">
         <v>326</v>
       </c>
@@ -20138,8 +19019,12 @@
       <c r="F92">
         <v>57.663443326950002</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1">
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15" customHeight="1">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -20158,8 +19043,12 @@
       <c r="F93">
         <v>57.7492225170135</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1">
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15" customHeight="1">
       <c r="A94" t="s">
         <v>198</v>
       </c>
@@ -20178,8 +19067,12 @@
       <c r="F94">
         <v>58.063313007354701</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1">
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15" customHeight="1">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -20198,8 +19091,12 @@
       <c r="F95">
         <v>58.186952352523797</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1">
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15" customHeight="1">
       <c r="A96" t="s">
         <v>244</v>
       </c>
@@ -20218,8 +19115,12 @@
       <c r="F96">
         <v>58.2302372455596</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1">
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1">
       <c r="A97" t="s">
         <v>206</v>
       </c>
@@ -20238,8 +19139,12 @@
       <c r="F97">
         <v>58.289937019348102</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1">
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15" customHeight="1">
       <c r="A98" t="s">
         <v>306</v>
       </c>
@@ -20258,8 +19163,12 @@
       <c r="F98">
         <v>58.326749324798499</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1">
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" customHeight="1">
       <c r="A99" t="s">
         <v>210</v>
       </c>
@@ -20278,8 +19187,12 @@
       <c r="F99">
         <v>58.399551868438699</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1">
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" customHeight="1">
       <c r="A100" t="s">
         <v>274</v>
       </c>
@@ -20298,8 +19211,12 @@
       <c r="F100">
         <v>58.407806396484297</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1">
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" customHeight="1">
       <c r="A101" t="s">
         <v>288</v>
       </c>
@@ -20317,6 +19234,10 @@
       </c>
       <c r="F101">
         <v>58.430790901183997</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>56.363999999999997</v>
       </c>
     </row>
   </sheetData>
